--- a/CastingÜbersicht.xlsx
+++ b/CastingÜbersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpf\BachelorGame2024\BachelorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22157B-24FD-4403-8480-DED4F306AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044EC26-5B6A-4F2D-82BC-E1C18D0BDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="3132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="528" yWindow="708" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Katze" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="218">
   <si>
     <t>Katze</t>
   </si>
@@ -268,9 +257,6 @@
     <t>Gut</t>
   </si>
   <si>
-    <t xml:space="preserve">Sehr gut </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gut </t>
   </si>
   <si>
@@ -296,6 +282,405 @@
   </si>
   <si>
     <t xml:space="preserve">Simon Mehlich </t>
+  </si>
+  <si>
+    <t>Ivana Konovic</t>
+  </si>
+  <si>
+    <t>Natalia Gubergritz</t>
+  </si>
+  <si>
+    <t>Elena Schwarz</t>
+  </si>
+  <si>
+    <t>gmx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etwas zu alte stimme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sehr gut braucht etwas andere Anweisungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanna Dallmeier </t>
+  </si>
+  <si>
+    <t>Hanna Dallmeier</t>
+  </si>
+  <si>
+    <t>Antonia Sandrock</t>
+  </si>
+  <si>
+    <t>Anna Sandrock</t>
+  </si>
+  <si>
+    <t>MIttel</t>
+  </si>
+  <si>
+    <t>Alexander Berenhauser</t>
+  </si>
+  <si>
+    <t>Alexander Berenheuser</t>
+  </si>
+  <si>
+    <t>Schlecht</t>
+  </si>
+  <si>
+    <t>Maximilian Modl</t>
+  </si>
+  <si>
+    <t>adere Regie anweisung aber gute Skills und stimme</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>ganz gut aber etwas zu alte stimme</t>
+  </si>
+  <si>
+    <t>Sabine Janicki</t>
+  </si>
+  <si>
+    <t>SabineJanicki</t>
+  </si>
+  <si>
+    <t>Larissa Bader</t>
+  </si>
+  <si>
+    <t>passt nicht so zu meiner vorstellung der Katze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larissa Bader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">auch sehr gut </t>
+  </si>
+  <si>
+    <t>Vera Lippisch</t>
+  </si>
+  <si>
+    <t>Sonja Wirwohl</t>
+  </si>
+  <si>
+    <t>Thom Nowoty</t>
+  </si>
+  <si>
+    <t>Anna Mack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etwas anderer Ansatz </t>
+  </si>
+  <si>
+    <t>Miguel Abrantes Ostrowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Audios </t>
+  </si>
+  <si>
+    <t>Bernd-Christian Althoff</t>
+  </si>
+  <si>
+    <t>Hannah Drill</t>
+  </si>
+  <si>
+    <t>Harald Effenberg</t>
+  </si>
+  <si>
+    <t>passt aber nich so von der Stimme</t>
+  </si>
+  <si>
+    <t>Till Gedack</t>
+  </si>
+  <si>
+    <t>Martha-Angel Gräbenit</t>
+  </si>
+  <si>
+    <t>etwas am Overacten</t>
+  </si>
+  <si>
+    <t>Wiktor Grduszak</t>
+  </si>
+  <si>
+    <t>Roland Herrmann</t>
+  </si>
+  <si>
+    <t>Christian Kaiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyllis Kaya </t>
+  </si>
+  <si>
+    <t>Anna Krestel</t>
+  </si>
+  <si>
+    <t>Steven C. Langner</t>
+  </si>
+  <si>
+    <t>Esther Maaß</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>Armin Nufer</t>
+  </si>
+  <si>
+    <t>Siegbert Pacher</t>
+  </si>
+  <si>
+    <t>Christian Rudolf</t>
+  </si>
+  <si>
+    <t>Johannes Schäfer</t>
+  </si>
+  <si>
+    <t>Gabor Enrico Schaub</t>
+  </si>
+  <si>
+    <t>onine</t>
+  </si>
+  <si>
+    <t>Nora Charlotte Schilling</t>
+  </si>
+  <si>
+    <t>onlien</t>
+  </si>
+  <si>
+    <t>Matti Schuldt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sehr GUT Mänlicher Favorite </t>
+  </si>
+  <si>
+    <t>Gerardo Senorans Barcala</t>
+  </si>
+  <si>
+    <t>Claudia Waldherr</t>
+  </si>
+  <si>
+    <t>Ludwig Waldmüller</t>
+  </si>
+  <si>
+    <t>Juan-Carlos De Bock</t>
+  </si>
+  <si>
+    <t>Akzent</t>
+  </si>
+  <si>
+    <t>Andreas Stadler</t>
+  </si>
+  <si>
+    <t>Maurice Bartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quali ist mittel </t>
+  </si>
+  <si>
+    <t>Ben Monka</t>
+  </si>
+  <si>
+    <t>etwas alte stimme</t>
+  </si>
+  <si>
+    <t>Manuel Zschunke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etwas zu alt </t>
+  </si>
+  <si>
+    <t>Sehr gut auch etwas zu alt</t>
+  </si>
+  <si>
+    <t>Ludwig Fuchs</t>
+  </si>
+  <si>
+    <t>keine Audio</t>
+  </si>
+  <si>
+    <t>Wolf Erik Schulz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keine Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bejo Dohmen </t>
+  </si>
+  <si>
+    <t>Simon Wyss</t>
+  </si>
+  <si>
+    <t>Benedikt Uy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Wiener </t>
+  </si>
+  <si>
+    <t>Bilal Soumano</t>
+  </si>
+  <si>
+    <t>Parick Sass</t>
+  </si>
+  <si>
+    <t>Felix Reber</t>
+  </si>
+  <si>
+    <t>Marcel Miska</t>
+  </si>
+  <si>
+    <t>keine audio aber eventuell anfragen</t>
+  </si>
+  <si>
+    <t>Benjamin Lucca</t>
+  </si>
+  <si>
+    <t>philipp Lehfeldt</t>
+  </si>
+  <si>
+    <t>gute stimme nicht so gut gespielt</t>
+  </si>
+  <si>
+    <t>Andreas Klaric</t>
+  </si>
+  <si>
+    <t>David Hörning</t>
+  </si>
+  <si>
+    <t>Audios Angefragt</t>
+  </si>
+  <si>
+    <t>Daniel Hasse</t>
+  </si>
+  <si>
+    <t>Luca Hämmerle</t>
+  </si>
+  <si>
+    <t>Andreas Hajdusic</t>
+  </si>
+  <si>
+    <t>gut aber etwas zu alt und schlechte quali</t>
+  </si>
+  <si>
+    <t>Joel glaesert</t>
+  </si>
+  <si>
+    <t>ganz gut aber nicht genau was ich suche</t>
+  </si>
+  <si>
+    <t>Manfred Anon Ehrmaier</t>
+  </si>
+  <si>
+    <t>keine Audio nicht so nice Stimme</t>
+  </si>
+  <si>
+    <t>Giuseppe Bonvissuto</t>
+  </si>
+  <si>
+    <t>Fabiano Bernardi</t>
+  </si>
+  <si>
+    <t>Konstantin Beck</t>
+  </si>
+  <si>
+    <t>Ean Baykan</t>
+  </si>
+  <si>
+    <t>Rocco Baldari</t>
+  </si>
+  <si>
+    <t>Rebecca Madita Hundt</t>
+  </si>
+  <si>
+    <t>ewas monoton</t>
+  </si>
+  <si>
+    <t>Sarah Stork</t>
+  </si>
+  <si>
+    <t>Luise Krause</t>
+  </si>
+  <si>
+    <t>Keine Audio aber gute Stimme</t>
+  </si>
+  <si>
+    <t>Roxxanne Rittmann</t>
+  </si>
+  <si>
+    <t>Rebekka Reinholz</t>
+  </si>
+  <si>
+    <t>Astrid Meier</t>
+  </si>
+  <si>
+    <t>stimme passt nicht</t>
+  </si>
+  <si>
+    <t>Özge Kayalar</t>
+  </si>
+  <si>
+    <t>Zoya Kostova</t>
+  </si>
+  <si>
+    <t>Sydney Tombrink</t>
+  </si>
+  <si>
+    <t>Eva Debrodt</t>
+  </si>
+  <si>
+    <t>Stefanie Wennmann</t>
+  </si>
+  <si>
+    <t>Helena Fuladdjusch</t>
+  </si>
+  <si>
+    <t>Julia Strowski</t>
+  </si>
+  <si>
+    <t>Audios angefordert</t>
+  </si>
+  <si>
+    <t>Justina Humpf</t>
+  </si>
+  <si>
+    <t>Anna Platen</t>
+  </si>
+  <si>
+    <t>Anja Lukassek</t>
+  </si>
+  <si>
+    <t>Lia Martin</t>
+  </si>
+  <si>
+    <t>Lisa Drotleff</t>
+  </si>
+  <si>
+    <t>Lisa-Marie Sauer</t>
+  </si>
+  <si>
+    <t>Sarah Liebert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Audio </t>
+  </si>
+  <si>
+    <t>Laura Wilmeroth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanka Winkler </t>
+  </si>
+  <si>
+    <t>keine Audio erst im April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine audio </t>
+  </si>
+  <si>
+    <t>Mayowa-Celina Esser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bianka Steigert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leider zu alt </t>
   </si>
 </sst>
 </file>
@@ -366,18 +751,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -442,27 +828,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -742,20 +1107,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -791,93 +1156,103 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>146</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -887,10 +1262,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>193</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -898,32 +1273,35 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -931,48 +1309,51 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -983,7 +1364,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -994,37 +1375,40 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1035,32 +1419,35 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1068,214 +1455,691 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
         <v>80</v>
       </c>
-      <c r="E46" t="s">
-        <v>81</v>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F45">
-    <sortCondition ref="B2:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F86">
+    <sortCondition ref="B2:B86"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="SCHLECHT">
@@ -1295,16 +2159,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF958A6-1110-4659-BA13-803572FE8662}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,41 +2191,513 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="schlecht">
       <formula>NOT(ISERROR(SEARCH("schlecht",C1)))</formula>
@@ -1379,16 +2716,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E7AC9C-F618-40B9-B603-EDEBB4AB0AF9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,29 +2748,32 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -1441,10 +2782,427 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F40">
+    <sortCondition ref="B40"/>
+  </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="schlecht">
       <formula>NOT(ISERROR(SEARCH("schlecht",C1)))</formula>

--- a/CastingÜbersicht.xlsx
+++ b/CastingÜbersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpf\BachelorGame2024\BachelorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044EC26-5B6A-4F2D-82BC-E1C18D0BDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A8998-4466-4EA7-BF94-137F6EE63462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="708" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Katze" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="225">
   <si>
     <t>Katze</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Alexander Berenhauser</t>
   </si>
   <si>
-    <t>Alexander Berenheuser</t>
-  </si>
-  <si>
     <t>Schlecht</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
     <t>David Hörning</t>
   </si>
   <si>
-    <t>Audios Angefragt</t>
-  </si>
-  <si>
     <t>Daniel Hasse</t>
   </si>
   <si>
@@ -681,6 +675,33 @@
   </si>
   <si>
     <t xml:space="preserve">leider zu alt </t>
+  </si>
+  <si>
+    <t>Annika Kirnbauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franziska Nylen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niklas Leifert </t>
+  </si>
+  <si>
+    <t>Gmx</t>
+  </si>
+  <si>
+    <t>Tim gernitz</t>
+  </si>
+  <si>
+    <t>Alexander B+F39+B2:F41+B+B2:F41</t>
+  </si>
+  <si>
+    <t>Rene Marvin Kuhnke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Seifert </t>
+  </si>
+  <si>
+    <t>Fanziska Nylen</t>
   </si>
 </sst>
 </file>
@@ -751,14 +772,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1107,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1187,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1189,7 +1209,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>73</v>
@@ -1200,7 +1220,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -1209,7 +1229,7 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1250,9 +1270,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>130</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1281,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1287,7 +1306,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>
@@ -1298,10 +1317,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1309,10 +1328,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1320,10 +1339,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1331,29 +1350,29 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1364,7 +1383,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1375,21 +1394,21 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1397,18 +1416,18 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1419,123 +1438,123 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1546,7 +1565,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1557,18 +1576,18 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1579,24 +1598,18 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1607,18 +1620,24 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1629,18 +1648,18 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1651,21 +1670,18 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1676,171 +1692,177 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>40</v>
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -1848,29 +1870,29 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>126</v>
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -1878,50 +1900,49 @@
       <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -1929,76 +1950,76 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -2006,49 +2027,49 @@
       <c r="E75" t="s">
         <v>10</v>
       </c>
-      <c r="F75" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2056,29 +2077,29 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>73</v>
@@ -2087,59 +2108,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
         <v>80</v>
       </c>
-      <c r="F86" t="s">
-        <v>115</v>
+      <c r="F89" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F86">
-    <sortCondition ref="B2:B86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F89">
+    <sortCondition ref="B2:B89"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="SCHLECHT">
@@ -2159,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF958A6-1110-4659-BA13-803572FE8662}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,126 +2245,126 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>204</v>
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2318,10 +2372,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2329,7 +2383,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>
@@ -2340,7 +2394,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
@@ -2351,184 +2405,184 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>198</v>
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>200</v>
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -2536,21 +2590,21 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -2558,109 +2612,109 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>209</v>
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>188</v>
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
@@ -2671,32 +2725,54 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
-        <v>155</v>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F45">
-    <sortCondition ref="B2:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F47">
+    <sortCondition ref="B2:B47"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="schlecht">
@@ -2716,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E7AC9C-F618-40B9-B603-EDEBB4AB0AF9}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2748,10 +2824,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
@@ -2768,12 +2844,12 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -2782,15 +2858,15 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2798,18 +2874,18 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2820,24 +2896,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2845,7 +2921,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2856,21 +2932,21 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2878,13 +2954,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2895,12 +2971,12 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2911,24 +2987,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2936,7 +3012,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2944,13 +3020,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -2958,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -2966,7 +3042,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -2999,126 +3075,126 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>154</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>165</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>147</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -3127,7 +3203,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -3135,7 +3211,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -3143,65 +3219,87 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>156</v>
       </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F40">
-    <sortCondition ref="B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F42">
+    <sortCondition ref="B2:B42"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="schlecht">

--- a/CastingÜbersicht.xlsx
+++ b/CastingÜbersicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BachelorGame\BachelorGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpf\BachelorGame2024\BachelorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849BDF3C-82D0-4646-9E6E-4D019994860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE38586-5FF3-446F-A89E-414E0FA36184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="8925" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Katze" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="240">
   <si>
     <t>Katze</t>
   </si>
@@ -686,9 +686,6 @@
     <t>Tim gernitz</t>
   </si>
   <si>
-    <t>Alexander B+F39+B2:F41+B+B2:F41</t>
-  </si>
-  <si>
     <t>Rene Marvin Kuhnke</t>
   </si>
   <si>
@@ -723,6 +720,33 @@
   </si>
   <si>
     <t>keine audio</t>
+  </si>
+  <si>
+    <t>Sinan Aslan</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Lara Jele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xenia Samstag </t>
+  </si>
+  <si>
+    <t>Jessica Sy</t>
+  </si>
+  <si>
+    <t>Vanessa Wunderlich</t>
+  </si>
+  <si>
+    <t>Jana Vanessa Weinhold</t>
+  </si>
+  <si>
+    <t>Julia Ernst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisschen zu viel </t>
   </si>
 </sst>
 </file>
@@ -1150,21 +1174,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1189,13 +1213,13 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -1206,7 +1230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -1217,7 +1241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>124</v>
       </c>
@@ -1239,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>109</v>
       </c>
@@ -1253,7 +1277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>92</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>128</v>
       </c>
@@ -1300,7 +1324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>189</v>
       </c>
@@ -1311,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>31</v>
       </c>
@@ -1325,9 +1349,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -1336,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>113</v>
       </c>
@@ -1347,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -1380,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>122</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>130</v>
       </c>
@@ -1402,7 +1426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>61</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>139</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1446,9 +1470,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -1457,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1468,7 +1492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -1504,7 +1528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>126</v>
       </c>
@@ -1515,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1540,9 +1564,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1551,7 +1575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -1562,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>132</v>
       </c>
@@ -1584,7 +1608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>138</v>
       </c>
@@ -1606,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>33</v>
       </c>
@@ -1628,7 +1652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>114</v>
       </c>
@@ -1650,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>115</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>37</v>
       </c>
@@ -1689,7 +1713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>84</v>
       </c>
@@ -1711,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>131</v>
       </c>
@@ -1722,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>141</v>
       </c>
@@ -1736,7 +1760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>53</v>
       </c>
@@ -1761,7 +1785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>102</v>
       </c>
@@ -1786,7 +1810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>55</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>140</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>118</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>136</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>96</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>34</v>
       </c>
@@ -1889,7 +1913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -1911,7 +1935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>216</v>
       </c>
@@ -1922,7 +1946,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>85</v>
       </c>
@@ -1933,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>134</v>
       </c>
@@ -1944,7 +1968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>123</v>
       </c>
@@ -1955,7 +1979,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>43</v>
       </c>
@@ -1969,7 +1993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>15</v>
       </c>
@@ -1980,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>182</v>
       </c>
@@ -1991,7 +2015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>121</v>
       </c>
@@ -2002,15 +2026,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" t="s">
         <v>225</v>
       </c>
-      <c r="D72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>60</v>
       </c>
@@ -2021,9 +2045,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
         <v>127</v>
@@ -2032,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>100</v>
       </c>
@@ -2043,7 +2067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>29</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>129</v>
       </c>
@@ -2079,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>83</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>107</v>
       </c>
@@ -2101,7 +2125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>50</v>
       </c>
@@ -2115,7 +2139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>125</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>76</v>
       </c>
@@ -2170,7 +2194,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>108</v>
       </c>
@@ -2181,7 +2205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>117</v>
       </c>
@@ -2192,7 +2216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2244,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>106</v>
       </c>
@@ -2231,7 +2255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>120</v>
       </c>
@@ -2264,20 +2288,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF958A6-1110-4659-BA13-803572FE8662}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2294,9 +2318,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2305,7 +2329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>201</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -2327,7 +2351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>109</v>
       </c>
@@ -2338,7 +2362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -2349,54 +2373,54 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>189</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>212</v>
       </c>
@@ -2421,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>208</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>139</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -2476,18 +2500,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>230</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -2501,7 +2525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>194</v>
       </c>
@@ -2512,7 +2536,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>215</v>
       </c>
@@ -2523,7 +2547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2534,7 +2558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>114</v>
       </c>
@@ -2545,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -2570,133 +2594,133 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>197</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>199</v>
       </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>207</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>203</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>204</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>185</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>211</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>134</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
@@ -2705,169 +2729,238 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>191</v>
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
         <v>95</v>
       </c>
       <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>182</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>75</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>188</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>187</v>
       </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>205</v>
       </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>184</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>195</v>
       </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>193</v>
       </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" t="s">
         <v>75</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>192</v>
       </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F51">
-    <sortCondition ref="B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F54">
+    <sortCondition ref="B54"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="schlecht">
@@ -2887,20 +2980,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E7AC9C-F618-40B9-B603-EDEBB4AB0AF9}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2917,9 +3010,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
@@ -2928,7 +3021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>73</v>
       </c>
@@ -2942,7 +3035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -2956,7 +3049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>167</v>
       </c>
@@ -2967,7 +3060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>155</v>
       </c>
@@ -2978,7 +3071,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>155</v>
       </c>
@@ -2989,7 +3082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>146</v>
       </c>
@@ -3003,7 +3096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>157</v>
       </c>
@@ -3014,7 +3107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>164</v>
       </c>
@@ -3025,7 +3118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>159</v>
       </c>
@@ -3036,7 +3129,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>169</v>
       </c>
@@ -3047,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>168</v>
       </c>
@@ -3058,7 +3151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -3069,7 +3162,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>180</v>
       </c>
@@ -3080,7 +3173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>178</v>
       </c>
@@ -3091,7 +3184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>161</v>
       </c>
@@ -3102,7 +3195,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -3113,7 +3206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>177</v>
       </c>
@@ -3124,7 +3217,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -3135,7 +3228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>173</v>
       </c>
@@ -3146,7 +3239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>66</v>
       </c>
@@ -3157,7 +3250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>179</v>
       </c>
@@ -3179,7 +3272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>158</v>
       </c>
@@ -3190,7 +3283,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>170</v>
       </c>
@@ -3201,7 +3294,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>151</v>
       </c>
@@ -3212,7 +3305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>175</v>
       </c>
@@ -3223,7 +3316,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>148</v>
       </c>
@@ -3237,7 +3330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>162</v>
       </c>
@@ -3248,7 +3341,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -3262,7 +3355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -3276,7 +3369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>160</v>
       </c>
@@ -3287,7 +3380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -3301,7 +3394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3312,9 +3405,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -3323,7 +3416,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>181</v>
       </c>
@@ -3334,7 +3427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>156</v>
       </c>
@@ -3345,56 +3438,67 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>98</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>218</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>153</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F42">
-    <sortCondition ref="B2:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F43">
+    <sortCondition ref="B2:B43"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="schlecht">

--- a/CastingÜbersicht.xlsx
+++ b/CastingÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpf\BachelorGame2024\BachelorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE38586-5FF3-446F-A89E-414E0FA36184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BECA4A-D0FC-4FE7-B60C-83C0B500D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="241">
   <si>
     <t>Katze</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bisschen zu viel </t>
+  </si>
+  <si>
+    <t>Sophia Schröter</t>
   </si>
 </sst>
 </file>
@@ -2288,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF958A6-1110-4659-BA13-803572FE8662}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,153 +2599,156 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
         <v>95</v>
@@ -2753,159 +2759,156 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>191</v>
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
         <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>188</v>
+        <v>228</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>205</v>
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -2913,13 +2916,16 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>192</v>
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
@@ -2935,32 +2941,40 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>237</v>
+        <v>227</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
-        <v>239</v>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F54">
-    <sortCondition ref="B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F58">
+    <sortCondition ref="B58"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="schlecht">

--- a/CastingÜbersicht.xlsx
+++ b/CastingÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpf\BachelorGame2024\BachelorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BECA4A-D0FC-4FE7-B60C-83C0B500D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42059288-A100-4D2D-88BC-BC2AD73E32D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="259">
   <si>
     <t>Katze</t>
   </si>
@@ -750,6 +750,60 @@
   </si>
   <si>
     <t>Sophia Schröter</t>
+  </si>
+  <si>
+    <t>Jasmin Affolter</t>
+  </si>
+  <si>
+    <t>Jara Maria Anders</t>
+  </si>
+  <si>
+    <t>Magdalena Bönisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhea Careddu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra Feilen </t>
+  </si>
+  <si>
+    <t>Patricia Foik</t>
+  </si>
+  <si>
+    <t>Karina Fink</t>
+  </si>
+  <si>
+    <t>Debby Gerber</t>
+  </si>
+  <si>
+    <t>Katharina Hannapel</t>
+  </si>
+  <si>
+    <t>Anna Häuser</t>
+  </si>
+  <si>
+    <t>Leonie Paulin Illies</t>
+  </si>
+  <si>
+    <t>Celine Susanne Köhler</t>
+  </si>
+  <si>
+    <t>Siska Leckband</t>
+  </si>
+  <si>
+    <t>Verena Leitner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cansu Leyan </t>
+  </si>
+  <si>
+    <t>Shanti Lunau</t>
+  </si>
+  <si>
+    <t>kein Audio</t>
+  </si>
+  <si>
+    <t>Franziska Wachs</t>
   </si>
 </sst>
 </file>
@@ -2291,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF958A6-1110-4659-BA13-803572FE8662}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,101 +2559,98 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>229</v>
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>114</v>
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -2610,43 +2661,46 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>235</v>
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>197</v>
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -2657,43 +2711,43 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -2704,54 +2758,57 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>185</v>
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2759,29 +2816,29 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -2792,46 +2849,43 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -2839,112 +2893,112 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>184</v>
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>236</v>
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
         <v>87</v>
@@ -2952,29 +3006,219 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>192</v>
       </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F58">
-    <sortCondition ref="B58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F67">
+    <sortCondition ref="B67"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="schlecht">
